--- a/2024/shuffle-architecute/Teste10/content/results/metrics_4_8.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_4_8.xlsx
@@ -488,445 +488,445 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_24</t>
+          <t>model_4_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999463397570971</v>
+        <v>0.8851687479289485</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.732523387746846</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9897624086825221</v>
+        <v>0.7093791996588119</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9987105421191544</v>
+        <v>0.9797608240533875</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9970025113745186</v>
+        <v>0.7534983961508156</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.4819222688674927</v>
       </c>
       <c r="H2" t="n">
-        <v>1.727458477020264</v>
+        <v>1.788617372512817</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01041627302765846</v>
+        <v>2.961206912994385</v>
       </c>
       <c r="J2" t="n">
-        <v>0.003658761270344257</v>
+        <v>0.03865176811814308</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007037493865936995</v>
+        <v>1.499929547309875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_22</t>
+          <t>model_4_8_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999463397570971</v>
+        <v>0.88405011155621</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7322060918773742</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9897624086825221</v>
+        <v>0.7064028901338616</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9987105421191544</v>
+        <v>0.9790666189045475</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9970025113745186</v>
+        <v>0.750897540094533</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.4866169095039368</v>
       </c>
       <c r="H3" t="n">
-        <v>1.727458477020264</v>
+        <v>1.790739178657532</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01041627302765846</v>
+        <v>2.991533279418945</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003658761270344257</v>
+        <v>0.03997752815485001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.007037493865936995</v>
+        <v>1.515755414962769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_21</t>
+          <t>model_4_8_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999463397570971</v>
+        <v>0.8830317658005111</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7319126471916853</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9897624086825221</v>
+        <v>0.7037166087748403</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9987105421191544</v>
+        <v>0.9784327097445392</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9970025113745186</v>
+        <v>0.7485489569085746</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.4908906817436218</v>
       </c>
       <c r="H4" t="n">
-        <v>1.727458477020264</v>
+        <v>1.792701363563538</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01041627302765846</v>
+        <v>3.018904447555542</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003658761270344257</v>
+        <v>0.04118813574314117</v>
       </c>
       <c r="K4" t="n">
-        <v>0.007037493865936995</v>
+        <v>1.530046224594116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_20</t>
+          <t>model_4_8_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999463397570971</v>
+        <v>0.8821055415259323</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7316422196734289</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9897624086825221</v>
+        <v>0.7012918683483591</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9987105421191544</v>
+        <v>0.9778549107997309</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9970025113745186</v>
+        <v>0.7464281307705645</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.4947778284549713</v>
       </c>
       <c r="H5" t="n">
-        <v>1.727458477020264</v>
+        <v>1.794509768486023</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01041627302765846</v>
+        <v>3.043610572814941</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003658761270344257</v>
+        <v>0.04229158908128738</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007037493865936995</v>
+        <v>1.542951226234436</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_19</t>
+          <t>model_4_8_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.999463397570971</v>
+        <v>0.8812644698228954</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7313937259132042</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9897624086825221</v>
+        <v>0.6991048901292525</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9987105421191544</v>
+        <v>0.9773292743657309</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9970025113745186</v>
+        <v>0.7445145087972387</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.4983076155185699</v>
       </c>
       <c r="H6" t="n">
-        <v>1.727458477020264</v>
+        <v>1.796171426773071</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01041627302765846</v>
+        <v>3.065894603729248</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003658761270344257</v>
+        <v>0.04329542070627213</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007037493865936995</v>
+        <v>1.554595351219177</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_18</t>
+          <t>model_4_8_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999463397570971</v>
+        <v>0.8805013653875725</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7311659670420853</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9897624086825221</v>
+        <v>0.6971324962723688</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9987105421191544</v>
+        <v>0.9768513885284655</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9970025113745186</v>
+        <v>0.7427880816718737</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.5015102028846741</v>
       </c>
       <c r="H7" t="n">
-        <v>1.727458477020264</v>
+        <v>1.797694325447083</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01041627302765846</v>
+        <v>3.085991621017456</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003658761270344257</v>
+        <v>0.04420806095004082</v>
       </c>
       <c r="K7" t="n">
-        <v>0.007037493865936995</v>
+        <v>1.565100431442261</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_23</t>
+          <t>model_4_8_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999463397570971</v>
+        <v>0.879809579711117</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7309576053476354</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9897624086825221</v>
+        <v>0.6953538700418549</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9987105421191544</v>
+        <v>0.9764175320935455</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9970025113745186</v>
+        <v>0.741230824309326</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.5044134259223938</v>
       </c>
       <c r="H8" t="n">
-        <v>1.727458477020264</v>
+        <v>1.799087762832642</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01041627302765846</v>
+        <v>3.104114532470703</v>
       </c>
       <c r="J8" t="n">
-        <v>0.003658761270344257</v>
+        <v>0.04503662139177322</v>
       </c>
       <c r="K8" t="n">
-        <v>0.007037493865936995</v>
+        <v>1.574576139450073</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_17</t>
+          <t>model_4_8_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9994634010168336</v>
+        <v>0.8791829677903331</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7416692774709357</v>
+        <v>0.7307674201746465</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9897624899728271</v>
+        <v>0.6937505018836838</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9987105448270205</v>
+        <v>0.9760241619413215</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9970025198639032</v>
+        <v>0.7398267295019424</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00225199107080698</v>
+        <v>0.5070432424545288</v>
       </c>
       <c r="H9" t="n">
-        <v>1.727458715438843</v>
+        <v>1.800359487533569</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0104161910712719</v>
+        <v>3.1204514503479</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003658753586933017</v>
+        <v>0.04578785970807076</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00703747384250164</v>
+        <v>1.583119869232178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_16</t>
+          <t>model_4_8_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9994634026708452</v>
+        <v>0.8786158197961271</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7416692710884443</v>
+        <v>0.7305940568194851</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9897625477727384</v>
+        <v>0.6923054901965524</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9987105393907744</v>
+        <v>0.9756674794564202</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9970025324264665</v>
+        <v>0.7385608674017171</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002251984085887671</v>
+        <v>0.5094234347343445</v>
       </c>
       <c r="H10" t="n">
-        <v>1.727458834648132</v>
+        <v>1.80151891708374</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01041613146662712</v>
+        <v>3.135175228118896</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003658769186586142</v>
+        <v>0.04646903276443481</v>
       </c>
       <c r="K10" t="n">
-        <v>0.007037444971501827</v>
+        <v>1.590822458267212</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_14</t>
+          <t>model_4_8_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999463416679503</v>
+        <v>0.8781026103386277</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7416692032198366</v>
+        <v>0.7304362550372532</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9897627929576763</v>
+        <v>0.6910030177783808</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9987105809831855</v>
+        <v>0.975344538564858</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9970026099329572</v>
+        <v>0.7374196278209422</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00225192541256547</v>
+        <v>0.5115772485733032</v>
       </c>
       <c r="H11" t="n">
-        <v>1.727459192276001</v>
+        <v>1.802574038505554</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01041588187217712</v>
+        <v>3.148446321487427</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003658650908619165</v>
+        <v>0.04708577319979668</v>
       </c>
       <c r="K11" t="n">
-        <v>0.007037262432277203</v>
+        <v>1.597766876220703</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_15</t>
+          <t>model_4_8_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.999463410382886</v>
+        <v>0.8776387833337113</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7416692008372354</v>
+        <v>0.7302928550231916</v>
       </c>
       <c r="D12" t="n">
-        <v>0.98976268324928</v>
+        <v>0.6898296208585777</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9987105621101802</v>
+        <v>0.9750524133622638</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9970025788374957</v>
+        <v>0.7363914430871541</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002251951722428203</v>
+        <v>0.5135238170623779</v>
       </c>
       <c r="H12" t="n">
-        <v>1.727459311485291</v>
+        <v>1.80353307723999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01041599363088608</v>
+        <v>3.160402536392212</v>
       </c>
       <c r="J12" t="n">
-        <v>0.003658704459667206</v>
+        <v>0.04764365777373314</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00703733554109931</v>
+        <v>1.604022979736328</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_13</t>
+          <t>model_4_8_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9994634205708857</v>
+        <v>0.8772195680662265</v>
       </c>
       <c r="C13" t="n">
-        <v>0.741669176135533</v>
+        <v>0.7301626071876377</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9897628803090237</v>
+        <v>0.688772382070678</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9987105856398945</v>
+        <v>0.9747880657122228</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9970026234825704</v>
+        <v>0.7354648132196858</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002251909114420414</v>
+        <v>0.5152832269668579</v>
       </c>
       <c r="H13" t="n">
-        <v>1.72745943069458</v>
+        <v>1.804404020309448</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01041579339653254</v>
+        <v>3.171174764633179</v>
       </c>
       <c r="J13" t="n">
-        <v>0.003658637870103121</v>
+        <v>0.0481484942138195</v>
       </c>
       <c r="K13" t="n">
-        <v>0.007037230767309666</v>
+        <v>1.609661459922791</v>
       </c>
     </row>
     <row r="14">
@@ -936,478 +936,478 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9994634198882506</v>
+        <v>0.8768409221882106</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7416691424833322</v>
+        <v>0.7300444757114775</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9897628343391175</v>
+        <v>0.6878201391589616</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9987105958149061</v>
+        <v>0.9745491950750186</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9970026244696203</v>
+        <v>0.7346299534665899</v>
       </c>
       <c r="G14" t="n">
-        <v>0.002251911908388138</v>
+        <v>0.5168722867965698</v>
       </c>
       <c r="H14" t="n">
-        <v>1.727459669113159</v>
+        <v>1.805193901062012</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01041583996266127</v>
+        <v>3.180877685546875</v>
       </c>
       <c r="J14" t="n">
-        <v>0.003658608999103308</v>
+        <v>0.04860467836260796</v>
       </c>
       <c r="K14" t="n">
-        <v>0.007037227973341942</v>
+        <v>1.614741563796997</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_11</t>
+          <t>model_4_8_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9994634259947246</v>
+        <v>0.8764990401513506</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7416690953845995</v>
+        <v>0.729937394309079</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9897629467932183</v>
+        <v>0.6869624137411889</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9987106119492741</v>
+        <v>0.9743333480005859</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9970026643286362</v>
+        <v>0.7338779474382443</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002251886064186692</v>
+        <v>0.518307089805603</v>
       </c>
       <c r="H15" t="n">
-        <v>1.727459907531738</v>
+        <v>1.805910110473633</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01041572540998459</v>
+        <v>3.189617156982422</v>
       </c>
       <c r="J15" t="n">
-        <v>0.003658563131466508</v>
+        <v>0.04901688918471336</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00703713484108448</v>
+        <v>1.619317412376404</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_10</t>
+          <t>model_4_8_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9994634302657253</v>
+        <v>0.8761904141746126</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7416690639153256</v>
+        <v>0.7298404033004151</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9897630527660354</v>
+        <v>0.6861898304804533</v>
       </c>
       <c r="E16" t="n">
-        <v>0.998710613436549</v>
+        <v>0.9741383747755411</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9970026841238676</v>
+        <v>0.733200554972445</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002251868369057775</v>
+        <v>0.519602358341217</v>
       </c>
       <c r="H16" t="n">
-        <v>1.727460145950317</v>
+        <v>1.806558609008789</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01041561737656593</v>
+        <v>3.197489261627197</v>
       </c>
       <c r="J16" t="n">
-        <v>0.003658558940514922</v>
+        <v>0.04938924312591553</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00703708827495575</v>
+        <v>1.623439192771912</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_9</t>
+          <t>model_4_8_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9994634354568136</v>
+        <v>0.8759119253547277</v>
       </c>
       <c r="C17" t="n">
-        <v>0.741668999679991</v>
+        <v>0.7297526332720494</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9897631513777543</v>
+        <v>0.6854939876592442</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9987106260732569</v>
+        <v>0.9739623673675258</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9970027170735584</v>
+        <v>0.7325903854237537</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002251846482977271</v>
+        <v>0.5207710862159729</v>
       </c>
       <c r="H17" t="n">
-        <v>1.727460622787476</v>
+        <v>1.807145357131958</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01041551772505045</v>
+        <v>3.20457911491394</v>
       </c>
       <c r="J17" t="n">
-        <v>0.003658523084595799</v>
+        <v>0.04972537606954575</v>
       </c>
       <c r="K17" t="n">
-        <v>0.007037010509520769</v>
+        <v>1.627151966094971</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_8</t>
+          <t>model_4_8_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.999463440596092</v>
+        <v>0.8756606446935931</v>
       </c>
       <c r="C18" t="n">
-        <v>0.741668932633027</v>
+        <v>0.7296732264412544</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9897632185649958</v>
+        <v>0.6848672440288246</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9987106495004004</v>
+        <v>0.9738035334127549</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9970027450156075</v>
+        <v>0.7320408197713879</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002251825062558055</v>
+        <v>0.5218256115913391</v>
       </c>
       <c r="H18" t="n">
-        <v>1.727460980415344</v>
+        <v>1.807676315307617</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0104154497385025</v>
+        <v>3.210965394973755</v>
       </c>
       <c r="J18" t="n">
-        <v>0.003658456727862358</v>
+        <v>0.05002870783209801</v>
       </c>
       <c r="K18" t="n">
-        <v>0.007036945316940546</v>
+        <v>1.630496144294739</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_7</t>
+          <t>model_4_8_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9994634488613574</v>
+        <v>0.8754339877469536</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7416688680077418</v>
+        <v>0.7296014048612034</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9897633882279211</v>
+        <v>0.6843030869784891</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9987106650808869</v>
+        <v>0.9736602729245486</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9970027853911975</v>
+        <v>0.7315457071423969</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002251790137961507</v>
+        <v>0.5227769017219543</v>
       </c>
       <c r="H19" t="n">
-        <v>1.727461457252502</v>
+        <v>1.808156728744507</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01041527651250362</v>
+        <v>3.216713666915894</v>
       </c>
       <c r="J19" t="n">
-        <v>0.003658412490040064</v>
+        <v>0.05030229687690735</v>
       </c>
       <c r="K19" t="n">
-        <v>0.007036850787699223</v>
+        <v>1.633508801460266</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_6</t>
+          <t>model_4_8_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9994634529818811</v>
+        <v>0.8752296500531904</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7416688037413569</v>
+        <v>0.729536556970942</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9897634654882207</v>
+        <v>0.683794881418186</v>
       </c>
       <c r="E20" t="n">
-        <v>0.998710675481554</v>
+        <v>0.9735308519753726</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9970028117495312</v>
+        <v>0.7311000177561042</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00225177314132452</v>
+        <v>0.5236344337463379</v>
       </c>
       <c r="H20" t="n">
-        <v>1.727461814880371</v>
+        <v>1.808590412139893</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01041519828140736</v>
+        <v>3.2218918800354</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003658382687717676</v>
+        <v>0.0505494587123394</v>
       </c>
       <c r="K20" t="n">
-        <v>0.007036788389086723</v>
+        <v>1.636220693588257</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_5</t>
+          <t>model_4_8_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9994634619718131</v>
+        <v>0.875045493675435</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7416687190046211</v>
+        <v>0.7294779530753829</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9897636535523827</v>
+        <v>0.6833375413473808</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9987106911748682</v>
+        <v>0.9734142922742678</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9970028561712316</v>
+        <v>0.7306988146833278</v>
       </c>
       <c r="G21" t="n">
-        <v>0.002251735189929605</v>
+        <v>0.5244073271751404</v>
       </c>
       <c r="H21" t="n">
-        <v>1.727462530136108</v>
+        <v>1.808982133865356</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01041500736027956</v>
+        <v>3.22655177116394</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003658338449895382</v>
+        <v>0.05077205970883369</v>
       </c>
       <c r="K21" t="n">
-        <v>0.007036684546619654</v>
+        <v>1.638662099838257</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_4</t>
+          <t>model_4_8_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9994634699567467</v>
+        <v>0.8748793857464214</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7416686485596414</v>
+        <v>0.7294250379039946</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9897637838076947</v>
+        <v>0.6829255241186643</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9987107183048134</v>
+        <v>0.9733091251313388</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9970029034574541</v>
+        <v>0.7303374583046486</v>
       </c>
       <c r="G22" t="n">
-        <v>0.002251701662316918</v>
+        <v>0.5251044631004333</v>
       </c>
       <c r="H22" t="n">
-        <v>1.727462887763977</v>
+        <v>1.809335947036743</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01041487418115139</v>
+        <v>3.23075008392334</v>
       </c>
       <c r="J22" t="n">
-        <v>0.003658261382952332</v>
+        <v>0.05097290128469467</v>
       </c>
       <c r="K22" t="n">
-        <v>0.007036573253571987</v>
+        <v>1.640860795974731</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_3</t>
+          <t>model_4_8_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9994634800713216</v>
+        <v>0.8747297800582637</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7416685681010425</v>
+        <v>0.7293772664619886</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9897639952631401</v>
+        <v>0.6825547948602153</v>
       </c>
       <c r="E23" t="n">
-        <v>0.99871073601877</v>
+        <v>0.9732143546348379</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9970029557852869</v>
+        <v>0.7300122255951941</v>
       </c>
       <c r="G23" t="n">
-        <v>0.002251659287139773</v>
+        <v>0.5257322788238525</v>
       </c>
       <c r="H23" t="n">
-        <v>1.727463483810425</v>
+        <v>1.809655547142029</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01041465904563665</v>
+        <v>3.234527349472046</v>
       </c>
       <c r="J23" t="n">
-        <v>0.003658211091533303</v>
+        <v>0.05115388706326485</v>
       </c>
       <c r="K23" t="n">
-        <v>0.007036450318992138</v>
+        <v>1.642839789390564</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_2</t>
+          <t>model_4_8_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9994635157272083</v>
+        <v>0.8745950076662657</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7416682454442957</v>
+        <v>0.7293341629260497</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9897646641908482</v>
+        <v>0.6822211241956997</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9987108259117149</v>
+        <v>0.973129054418937</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9970031566619021</v>
+        <v>0.7297193260517361</v>
       </c>
       <c r="G24" t="n">
-        <v>0.002251509809866548</v>
+        <v>0.526297926902771</v>
       </c>
       <c r="H24" t="n">
-        <v>1.727465629577637</v>
+        <v>1.809943675994873</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01041397824883461</v>
+        <v>3.237927198410034</v>
       </c>
       <c r="J24" t="n">
-        <v>0.003657956141978502</v>
+        <v>0.05131679028272629</v>
       </c>
       <c r="K24" t="n">
-        <v>0.007035979069769382</v>
+        <v>1.644622087478638</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_1</t>
+          <t>model_4_8_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9994635600501741</v>
+        <v>0.8744734208209883</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7416678334567517</v>
+        <v>0.7292952987465737</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9897655017222182</v>
+        <v>0.6819203847539699</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9987109356008013</v>
+        <v>0.9730519360477439</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9970034084892304</v>
+        <v>0.7294554202388377</v>
       </c>
       <c r="G25" t="n">
-        <v>0.002251323545351624</v>
+        <v>0.5268082618713379</v>
       </c>
       <c r="H25" t="n">
-        <v>1.727468371391296</v>
+        <v>1.810203552246094</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01041312608867884</v>
+        <v>3.240991592407227</v>
       </c>
       <c r="J25" t="n">
-        <v>0.003657644614577293</v>
+        <v>0.05146406963467598</v>
       </c>
       <c r="K25" t="n">
-        <v>0.007035387679934502</v>
+        <v>1.646227836608887</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_0</t>
+          <t>model_4_8_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9994636034887416</v>
+        <v>0.874364027015108</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7416674569530818</v>
+        <v>0.7292602426126784</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9897662825137226</v>
+        <v>0.6816499276906667</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9987110574855416</v>
+        <v>0.9729826469073659</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9970036537205291</v>
+        <v>0.729218168037935</v>
       </c>
       <c r="G26" t="n">
-        <v>0.002251141238957644</v>
+        <v>0.5272672772407532</v>
       </c>
       <c r="H26" t="n">
-        <v>1.727470874786377</v>
+        <v>1.81043815612793</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01041233167052269</v>
+        <v>3.243747472763062</v>
       </c>
       <c r="J26" t="n">
-        <v>0.003657299093902111</v>
+        <v>0.05159639194607735</v>
       </c>
       <c r="K26" t="n">
-        <v>0.007034811656922102</v>
+        <v>1.647671461105347</v>
       </c>
     </row>
   </sheetData>
